--- a/techniqo/data_new_ticker/GALAXYSURF.xlsx
+++ b/techniqo/data_new_ticker/GALAXYSURF.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G641"/>
+  <dimension ref="A1:G643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22861,6 +22861,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1939.05</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1950.45</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1892.15</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1908.9</v>
+      </c>
+      <c r="F642" t="n">
+        <v>19444</v>
+      </c>
+      <c r="G642" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1919.05</v>
+      </c>
+      <c r="F643" t="n">
+        <v>16841</v>
+      </c>
+      <c r="G643" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GALAXYSURF.xlsx
+++ b/techniqo/data_new_ticker/GALAXYSURF.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22911,6 +22911,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1925.3</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1980.15</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1953</v>
+      </c>
+      <c r="F644" t="n">
+        <v>53433</v>
+      </c>
+      <c r="G644" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1998.5</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1920.15</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1987.7</v>
+      </c>
+      <c r="F645" t="n">
+        <v>49019</v>
+      </c>
+      <c r="G645" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
